--- a/Article/AGI ARTICLE/Figures/Code-images/finalStats.xlsx
+++ b/Article/AGI ARTICLE/Figures/Code-images/finalStats.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Finals stats\Implementation figures\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="(1,4,5) graphs" sheetId="1" r:id="rId1"/>
     <sheet name="(3,3,3) graph" sheetId="3" r:id="rId2"/>
     <sheet name="All graphs" sheetId="2" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,8 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -118,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,7 +133,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
@@ -402,11 +402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168636192"/>
-        <c:axId val="168636584"/>
+        <c:axId val="533659648"/>
+        <c:axId val="100702976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168636192"/>
+        <c:axId val="533659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,26 +452,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -510,7 +490,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168636584"/>
+        <c:crossAx val="100702976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -518,7 +498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168636584"/>
+        <c:axId val="100702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -575,26 +555,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -627,7 +587,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168636192"/>
+        <c:crossAx val="533659648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -698,10 +658,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25860264642060987"/>
-          <c:y val="6.4976988885019724E-2"/>
-          <c:w val="0.67414955123616538"/>
-          <c:h val="0.66233131916437571"/>
+          <c:x val="0.17679542697569833"/>
+          <c:y val="5.3125600976476388E-2"/>
+          <c:w val="0.6462180114874182"/>
+          <c:h val="0.71559157017246633"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -711,14 +671,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(1,5,4)</c:v>
+            <c:v>1x5x4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -729,34 +687,72 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('All graphs'!$C$3,'All graphs'!$G$3,'All graphs'!$K$3)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.86344535410809</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3003336566090402</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.73650003264859</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('All graphs'!$C$3,'All graphs'!$G$3,'All graphs'!$K$3)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>3.86344535410809</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.3003336566090402</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.73650003264859</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,16 +761,16 @@
             <c:numRef>
               <c:f>('All graphs'!$C$2,'All graphs'!$G$2,'All graphs'!$K$2)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.8661689456916558E-2</c:v>
+                  <c:v>6.8661689456916601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6824929548921972E-2</c:v>
+                  <c:v>8.6824929548922007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18473395360132261</c:v>
+                  <c:v>18.473395360132301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,15 +781,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(3,3,3)</c:v>
+            <c:v>3x3x3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -803,34 +798,72 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('All graphs'!$C$8,'All graphs'!$G$8,'All graphs'!$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>14.7090620088523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.777337472193699</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.607140119597599</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('All graphs'!$C$8,'All graphs'!$G$8,'All graphs'!$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>14.7090620088523</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.777337472193699</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.607140119597599</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,16 +872,16 @@
             <c:numRef>
               <c:f>('All graphs'!$C$7,'All graphs'!$G$7,'All graphs'!$K$7)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.21360179116498715</c:v>
+                <c:pt idx="0">
+                  <c:v>21.360179116498699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46837687031075981</c:v>
+                  <c:v>46.837687031076001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6002985605210468</c:v>
+                  <c:v>60.029856052104698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,11 +898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169964416"/>
-        <c:axId val="169964808"/>
+        <c:axId val="44540928"/>
+        <c:axId val="43842880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169964416"/>
+        <c:axId val="44540928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,20 +928,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1"/>
-                  <a:t>Level of symbolic knowledge</a:t>
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Symbolic Knowledge</a:t>
                 </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1800" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.34166782824463326"/>
-              <c:y val="0.86180317180496646"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -917,28 +951,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -960,79 +974,85 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169964808"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="43842880"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169964808"/>
+        <c:axId val="43842880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
-          <c:min val="0"/>
+          <c:max val="81"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:srgbClr val="595959"/>
                     </a:solidFill>
+                    <a:effectLst/>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="2000" b="1" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Repaired Candidates </a:t>
+                  <a:t>epaired Candidates  </a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR" sz="2000">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.5065913370998116E-2"/>
-              <c:y val="6.237211499005102E-2"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1041,36 +1061,13 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -1078,24 +1075,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169964416"/>
+        <c:crossAx val="44540928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1109,28 +1107,14 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:defRPr sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -1310,12 +1294,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168637368"/>
-        <c:axId val="168637760"/>
+        <c:axId val="533660160"/>
+        <c:axId val="533529152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168637368"/>
+        <c:axId val="533660160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,26 +1346,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1419,7 +1384,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168637760"/>
+        <c:crossAx val="533529152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168637760"/>
+        <c:axId val="533529152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -1483,26 +1448,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1535,7 +1480,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168637368"/>
+        <c:crossAx val="533660160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1721,12 +1666,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="168638544"/>
-        <c:axId val="168638936"/>
+        <c:axId val="533661696"/>
+        <c:axId val="533530880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="168638544"/>
+        <c:axId val="533661696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,26 +1725,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1837,7 +1763,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168638936"/>
+        <c:crossAx val="533530880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1845,7 +1771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="168638936"/>
+        <c:axId val="533530880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1902,26 +1828,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1954,7 +1860,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168638544"/>
+        <c:crossAx val="533661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2140,12 +2046,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169097144"/>
-        <c:axId val="169097536"/>
+        <c:axId val="533663232"/>
+        <c:axId val="533532608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169097144"/>
+        <c:axId val="533663232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,26 +2098,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2249,7 +2136,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169097536"/>
+        <c:crossAx val="533532608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169097536"/>
+        <c:axId val="533532608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -2318,26 +2205,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2370,7 +2237,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169097144"/>
+        <c:crossAx val="533663232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2580,11 +2447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169098320"/>
-        <c:axId val="169098712"/>
+        <c:axId val="554455040"/>
+        <c:axId val="533534336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169098320"/>
+        <c:axId val="554455040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +2488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2630,26 +2496,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2688,7 +2534,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169098712"/>
+        <c:crossAx val="533534336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2696,7 +2542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169098712"/>
+        <c:axId val="533534336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2744,7 +2590,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2753,26 +2598,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2805,7 +2630,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169098320"/>
+        <c:crossAx val="554455040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2991,12 +2816,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169604656"/>
-        <c:axId val="169605048"/>
+        <c:axId val="554455552"/>
+        <c:axId val="533536064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169604656"/>
+        <c:axId val="554455552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3033,7 +2859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3042,26 +2867,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3100,7 +2905,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169605048"/>
+        <c:crossAx val="533536064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3108,7 +2913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169605048"/>
+        <c:axId val="533536064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -3155,7 +2960,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3164,26 +2968,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3216,7 +3000,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169604656"/>
+        <c:crossAx val="554455552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -3287,10 +3071,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24319171434505937"/>
-          <c:y val="5.4898961421295238E-2"/>
-          <c:w val="0.64978171793274031"/>
-          <c:h val="0.6890429729540285"/>
+          <c:x val="0.17584878071290969"/>
+          <c:y val="5.0226994628940883E-2"/>
+          <c:w val="0.64679884428367274"/>
+          <c:h val="0.7371496241624631"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3300,14 +3084,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(1,5,4)</c:v>
+            <c:v>1X5X4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3318,89 +3100,30 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>('All graphs'!$B$3,'All graphs'!$F$3,'All graphs'!$J$3)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.19217494412728925</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.14609191114276501</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.3574638400345531E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>('All graphs'!$B$3,'All graphs'!$F$3,'All graphs'!$J$3)</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.19217494412728925</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.14609191114276501</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.3574638400345531E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,16 +3132,16 @@
             <c:numRef>
               <c:f>('All graphs'!$B$2,'All graphs'!$F$2,'All graphs'!$J$2)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.438529411764706</c:v>
+                  <c:v>43.852941176470601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78004901960784323</c:v>
+                  <c:v>78.004901960784295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94289215686274508</c:v>
+                  <c:v>94.289215686274503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,15 +3152,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(3,3,3)</c:v>
+            <c:v>3X3X3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3447,42 +3169,43 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:shade val="76000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:errBars>
             <c:errDir val="y"/>
@@ -3496,63 +3219,50 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.23942050362340184</c:v>
+                    <c:v>23.942050362340201</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15135750812276408</c:v>
+                    <c:v>15.135750812276399</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8004670659895045E-2</c:v>
+                    <c:v>6.8004670659895003</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('All graphs'!$B$8,'All graphs'!$F$8,'All graphs'!$J$8)</c:f>
+                <c:f>('All graphs'!$B$3,'All graphs'!$F$3,'All graphs'!$J$3)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.23942050362340184</c:v>
+                    <c:v>19.2174944127289</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.15135750812276408</c:v>
+                    <c:v>14.609191114276502</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8004670659895045E-2</c:v>
+                    <c:v>3.3574638400345496</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3561,16 +3271,16 @@
             <c:numRef>
               <c:f>('All graphs'!$B$7,'All graphs'!$F$7,'All graphs'!$J$7)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.39009666727224079</c:v>
+                <c:pt idx="0">
+                  <c:v>39.009666727224101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8433716073987344</c:v>
+                  <c:v>84.337160739873397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93518435615374385</c:v>
+                  <c:v>93.518435615374401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3587,11 +3297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169605832"/>
-        <c:axId val="169606224"/>
+        <c:axId val="554456576"/>
+        <c:axId val="554632320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169605832"/>
+        <c:axId val="554456576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,28 +3313,35 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Level of symbolic knowledge</a:t>
+                  <a:t>% Symbolic Knowledge</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3637,28 +3354,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3695,54 +3392,69 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169606224"/>
-        <c:crossesAt val="0.1"/>
+        <c:crossAx val="554632320"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169606224"/>
+        <c:axId val="554632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Recovery</a:t>
+                  <a:t>(%) Recovery</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2046158348412916E-2"/>
+              <c:y val="0.21855319229421405"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3751,36 +3463,13 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -3788,7 +3477,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3803,10 +3492,10 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169605832"/>
+        <c:crossAx val="554456576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3832,16 +3521,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -3906,10 +3592,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.25860264642060987"/>
-          <c:y val="6.4976988885019724E-2"/>
-          <c:w val="0.7137765123992269"/>
-          <c:h val="0.66233131916437571"/>
+          <c:x val="0.17679542697569833"/>
+          <c:y val="5.3125600976476388E-2"/>
+          <c:w val="0.6462180114874182"/>
+          <c:h val="0.71559157017246633"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3919,14 +3605,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(1,5,4)</c:v>
+            <c:v>1x5x4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3937,15 +3621,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3963,13 +3643,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.8634453541080901E-2</c:v>
+                    <c:v>3.86344535410809</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3003336566090381E-2</c:v>
+                    <c:v>5.3003336566090402</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7365000326485867E-2</c:v>
+                    <c:v>2.73650003264859</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3981,45 +3661,32 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>3.8634453541080901E-2</c:v>
+                    <c:v>3.86344535410809</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>5.3003336566090381E-2</c:v>
+                    <c:v>5.3003336566090402</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.7365000326485867E-2</c:v>
+                    <c:v>2.73650003264859</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4028,16 +3695,16 @@
             <c:numRef>
               <c:f>('All graphs'!$C$2,'All graphs'!$G$2,'All graphs'!$K$2)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.8661689456916558E-2</c:v>
+                  <c:v>6.8661689456916601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6824929548921972E-2</c:v>
+                  <c:v>8.6824929548922007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18473395360132261</c:v>
+                  <c:v>18.473395360132301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4048,15 +3715,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(3,3,3)</c:v>
+            <c:v>3x3x3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4066,15 +3732,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4092,13 +3754,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.14709062008852311</c:v>
+                    <c:v>14.7090620088523</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13777337472193701</c:v>
+                    <c:v>13.777337472193699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10607140119597615</c:v>
+                    <c:v>10.607140119597599</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4110,45 +3772,32 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.14709062008852311</c:v>
+                    <c:v>14.7090620088523</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.13777337472193701</c:v>
+                    <c:v>13.777337472193699</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.10607140119597615</c:v>
+                    <c:v>10.607140119597599</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4157,16 +3806,16 @@
             <c:numRef>
               <c:f>('All graphs'!$C$7,'All graphs'!$G$7,'All graphs'!$K$7)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.21360179116498715</c:v>
+                <c:pt idx="0">
+                  <c:v>21.360179116498699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46837687031075981</c:v>
+                  <c:v>46.837687031076001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6002985605210468</c:v>
+                  <c:v>60.029856052104698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4183,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169607008"/>
-        <c:axId val="169607400"/>
+        <c:axId val="554458112"/>
+        <c:axId val="554634624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169607008"/>
+        <c:axId val="554458112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,20 +3862,21 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1"/>
-                  <a:t>Level of symbolic knowledge</a:t>
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Symbolic Knowledge</a:t>
                 </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1800" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.34166782824463326"/>
-              <c:y val="0.86180317180496646"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4235,28 +3885,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4278,7 +3908,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4293,22 +3923,23 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169607400"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="554634624"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169607400"/>
+        <c:axId val="554634624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.8"/>
-          <c:min val="0"/>
+          <c:max val="80"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4322,7 +3953,7 @@
                   <a:spcAft>
                     <a:spcPts val="0"/>
                   </a:spcAft>
-                  <a:defRPr lang="fr-FR" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -4333,28 +3964,29 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
                     <a:effectLst/>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Repaired Candidates </a:t>
+                  <a:t>epaired Candidates  </a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.5065913370998116E-2"/>
-              <c:y val="6.237211499005102E-2"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4363,40 +3995,13 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:defRPr lang="fr-FR" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="595959"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -4404,7 +4009,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4419,10 +4024,10 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169607008"/>
+        <c:crossAx val="554458112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="0.1"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4436,28 +4041,14 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+            <a:defRPr sz="1400" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -4522,10 +4113,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.27387419481002934"/>
-          <c:y val="5.4898961421295238E-2"/>
-          <c:w val="0.58817229533920468"/>
-          <c:h val="0.6890429729540285"/>
+          <c:x val="0.17584878071290969"/>
+          <c:y val="5.0226994628940883E-2"/>
+          <c:w val="0.64679884428367274"/>
+          <c:h val="0.7371496241624631"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4535,14 +4126,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>(1,5,4)</c:v>
+            <c:v>1x5x4</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4553,15 +4142,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="77000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:tint val="77000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4571,16 +4156,16 @@
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,16 +4174,16 @@
             <c:numRef>
               <c:f>('All graphs'!$B$2,'All graphs'!$F$2,'All graphs'!$J$2)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.438529411764706</c:v>
+                  <c:v>43.852941176470601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78004901960784323</c:v>
+                  <c:v>78.004901960784295</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94289215686274508</c:v>
+                  <c:v>94.289215686274503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,15 +4194,14 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>(3,3,3)</c:v>
+            <c:v>3x3x3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4627,57 +4211,80 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="76000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:shade val="76000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:shade val="76000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:idx val="1"/>
             <c:bubble3D val="0"/>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('All graphs'!$B$8,'All graphs'!$F$8,'All graphs'!$J$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>23.942050362340201</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.135750812276399</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.8004670659895003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('All graphs'!$B$3,'All graphs'!$F$3,'All graphs'!$J$3)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.2174944127289</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.609191114276502</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.3574638400345496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>('All graphs'!$A$1,'All graphs'!$E$1,'All graphs'!$I$1)</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,16 +4293,16 @@
             <c:numRef>
               <c:f>('All graphs'!$B$7,'All graphs'!$F$7,'All graphs'!$J$7)</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.39009666727224079</c:v>
+                <c:pt idx="0">
+                  <c:v>39.009666727224101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8433716073987344</c:v>
+                  <c:v>84.337160739873397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93518435615374385</c:v>
+                  <c:v>93.518435615374401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,11 +4319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169963240"/>
-        <c:axId val="169963632"/>
+        <c:axId val="60580352"/>
+        <c:axId val="43788544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169963240"/>
+        <c:axId val="60580352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4728,28 +4335,35 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Level of symbolic knowledge</a:t>
+                  <a:t>% Symbolic Knowledge</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4762,28 +4376,8 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4805,7 +4399,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr">
-              <a:defRPr lang="fr-FR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4820,54 +4414,96 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169963632"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="43788544"/>
+        <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169963632"/>
+        <c:axId val="43788544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
+          <c:max val="100"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" baseline="0">
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0" smtClean="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
                     <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>% </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0" err="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Recovery</a:t>
                 </a:r>
-                <a:endParaRPr lang="fr-FR">
+                <a:endParaRPr lang="fr-FR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0" dirty="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5713464798168082E-2"/>
+              <c:y val="0.22192879218455475"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4876,36 +4512,13 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -4913,7 +4526,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4928,14 +4541,14 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169963240"/>
+        <c:crossAx val="60580352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -4957,16 +4570,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -5047,12 +4657,6 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
-  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
@@ -5259,12 +4863,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
-  <a:schemeClr val="accent1"/>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5768,8 +5366,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5877,6 +5475,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5887,6 +5490,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5918,6 +5526,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6271,7 +5882,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6787,7 +6398,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7303,8 +6914,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7412,11 +7023,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7427,11 +7033,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7463,9 +7064,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7819,8 +7417,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7928,6 +7526,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7938,6 +7541,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7969,6 +7577,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8322,8 +7933,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8431,11 +8042,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8446,11 +8052,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8482,9 +8083,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8838,1013 +8436,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10545,16 +9137,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>186658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>378619</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10575,16 +9167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582386</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>651443</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>183355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10605,20 +9197,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>420873</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>132906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>214258</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129605</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -10637,23 +9229,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>597015</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>169748</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10925,7 +9515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11128,8 +9718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11140,45 +9730,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>0.25</v>
+      <c r="A1" s="8">
+        <v>25</v>
       </c>
-      <c r="E1" s="5">
-        <v>0.5</v>
+      <c r="E1" s="8">
+        <v>50</v>
       </c>
-      <c r="I1" s="5">
-        <v>0.75</v>
+      <c r="I1" s="8">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.438529411764706</v>
+      <c r="B2" s="7">
+        <v>43.852941176470601</v>
       </c>
-      <c r="C2" s="6">
-        <v>6.8661689456916558E-2</v>
+      <c r="C2" s="7">
+        <v>6.8661689456916601</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.78004901960784323</v>
+      <c r="F2" s="7">
+        <f>78.0049019607843</f>
+        <v>78.004901960784295</v>
       </c>
-      <c r="G2" s="6">
-        <v>8.6824929548921972E-2</v>
+      <c r="G2" s="7">
+        <v>8.6824929548922007</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
-        <v>0.94289215686274508</v>
+      <c r="J2" s="7">
+        <f>0.942892156862745*100</f>
+        <v>94.289215686274503</v>
       </c>
-      <c r="K2" s="6">
-        <v>0.18473395360132261</v>
+      <c r="K2" s="7">
+        <v>18.473395360132301</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -11186,30 +9778,36 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.19217494412728925</v>
+        <f xml:space="preserve"> 0.192174944127289*100</f>
+        <v>19.2174944127289</v>
       </c>
       <c r="C3" s="1">
-        <v>3.8634453541080901E-2</v>
+        <f>100*0.0386344535410809</f>
+        <v>3.86344535410809</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0.14609191114276501</v>
+        <f>100*0.146091911142765</f>
+        <v>14.609191114276502</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3003336566090381E-2</v>
+        <f>100*0.0530033365660904</f>
+        <v>5.3003336566090402</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>3.3574638400345531E-2</v>
+        <f>100*0.0335746384003455</f>
+        <v>3.3574638400345496</v>
       </c>
       <c r="K3" s="1">
-        <v>2.7365000326485867E-2</v>
+        <f>100*0.0273650003264859</f>
+        <v>2.73650003264859</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11227,29 +9825,29 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.39009666727224079</v>
+      <c r="B7" s="8">
+        <v>39.009666727224101</v>
       </c>
-      <c r="C7" s="5">
-        <v>0.21360179116498715</v>
+      <c r="C7" s="8">
+        <v>21.360179116498699</v>
       </c>
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.8433716073987344</v>
+      <c r="F7" s="8">
+        <v>84.337160739873397</v>
       </c>
-      <c r="G7" s="7">
-        <v>0.46837687031075981</v>
+      <c r="G7" s="8">
+        <v>46.837687031076001</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <v>0.93518435615374385</v>
+      <c r="J7" s="8">
+        <v>93.518435615374401</v>
       </c>
-      <c r="K7" s="7">
-        <v>0.6002985605210468</v>
+      <c r="K7" s="8">
+        <v>60.029856052104698</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -11257,32 +9855,52 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.23942050362340184</v>
+        <f>100*0.239420503623402</f>
+        <v>23.942050362340201</v>
       </c>
       <c r="C8">
-        <v>0.14709062008852311</v>
+        <f>100*0.147090620088523</f>
+        <v>14.7090620088523</v>
       </c>
       <c r="E8" t="s">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.15135750812276408</v>
+        <f>100*0.151357508122764</f>
+        <v>15.135750812276399</v>
       </c>
       <c r="G8">
-        <v>0.13777337472193701</v>
+        <f>100 *0.137773374721937</f>
+        <v>13.777337472193699</v>
       </c>
       <c r="I8" t="s">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>6.8004670659895045E-2</v>
+        <f>100 *0.068004670659895</f>
+        <v>6.8004670659895003</v>
       </c>
       <c r="K8">
-        <v>0.10607140119597615</v>
+        <f>100 *0.106071401195976</f>
+        <v>10.607140119597599</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>